--- a/data/financial_statements/sofp/SYF.xlsx
+++ b/data/financial_statements/sofp/SYF.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,587 +587,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>10294000000</v>
+      </c>
+      <c r="C2">
         <v>11962000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>10682000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10541000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8337000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9806000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>11117000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>16620000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>11524000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13552000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16344000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13704000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>12147000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>11461000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>11755000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>12963000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9396000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>12068000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>15675000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>13044000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>11602000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>13915000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>12020000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>11392000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>9321000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>13588000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>11787000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>12500000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>12325000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>12271000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>10621000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>11218000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>11828000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>14808000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>6782000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5331000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2319000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>93237000000</v>
+      </c>
+      <c r="C3">
         <v>88872000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>84548000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>84852000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>84750000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>81028000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>80468000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>83600000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>83131000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>81931000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>84859000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>87003000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>94485000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>97243000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>95838000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>95478000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>96108000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>93366000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>88695000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>85159000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>87975000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>85482000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>82477000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>80066000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>81314000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>80117000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>76175000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>74729000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>77118000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>72420000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>68750000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>66570000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>70210000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>69966000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>60107000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>56618000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>56681000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>4879000000</v>
+      </c>
+      <c r="C4">
         <v>5082000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5012000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4677000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5283000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5444000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5728000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6550000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7469000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>8432000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6623000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6146000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5911000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4584000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6147000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>5506000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6062000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>7281000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6779000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6259000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4473000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3317000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3997000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5328000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5110000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3356000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2723000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2949000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3142000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3596000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3682000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3121000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1598000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>325000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>298000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>265000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>236000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>2392000000</v>
+      </c>
+      <c r="C5">
         <v>2138000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2223000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2254000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2273000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2195000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2203000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2273000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2203000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2169000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2244000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2286000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2343000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2255000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2293000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2335000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2161000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2129000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1887000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1771000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1740000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1763000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1778000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1818000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1661000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1682000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1653000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1651000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1650000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1595000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1524000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1506000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1468000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1398000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1412000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1413000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1249000000</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1061,347 +1187,356 @@
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>4056000000</v>
+      </c>
+      <c r="C6">
         <v>4674000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3417000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3484000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3442000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3270000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3618000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3431000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3145000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3126000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2818000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2603000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2087000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1861000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2110000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2065000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2461000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1769000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1761000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2370000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1620000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1986000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2888000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1838000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2122000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2004000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1833000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2327000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2080000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1831000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1794000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1524000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2431000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1780000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1358000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>949000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>919000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>11327000000</v>
+      </c>
+      <c r="C7">
         <v>11894000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>10652000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10415000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10998000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10909000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11549000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>12254000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12817000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>13727000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11685000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11035000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10341000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8700000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>10550000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>9906000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>10684000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>11179000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>10427000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>10400000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>7833000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7066000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8663000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>8984000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>8893000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>7042000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>6209000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>6927000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>6872000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>7022000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>7000000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>6151000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>5497000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3503000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3068000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2627000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2404000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>104564000000</v>
+      </c>
+      <c r="C8">
         <v>100766000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>95200000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>95267000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>95748000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>91937000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>92017000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>95854000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>95948000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>95658000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>96544000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>98038000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>104826000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>105943000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>106388000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>105384000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>106792000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>104545000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>99122000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>95559000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>95808000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>92548000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>91140000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>89050000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>90207000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>87159000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>82384000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>81656000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>83990000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>79442000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>75750000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>72721000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>75707000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>73469000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>63175000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>59245000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>59085000000</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1409,508 +1544,520 @@
       <c r="AN8">
         <v>0</v>
       </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9">
         <v>21721000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>11088000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>71735000000</v>
+      </c>
+      <c r="C10">
         <v>68404000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>64709000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>63575000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>62270000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>60353000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>59841000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>62761000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>62782000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>63493000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>64148000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>64615000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>65154000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>65972000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>65645000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>64060000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>64019000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>62317000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>59011000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>56570000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>56488000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>54454000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>52885000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>51605000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>52055000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>49815000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>46427000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>44977000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>43367000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>40548000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>37772000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>34950000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>34955000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>32689000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>30462000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>27358000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>25719000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>5765000000</v>
+      </c>
+      <c r="C11">
         <v>5029000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4941000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4914000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5316000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4888000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4522000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4494000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4690000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4295000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4428000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4205000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4718000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4488000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4765000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4724000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4099000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4491000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3932000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3618000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4287000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3793000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3214000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2888000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3809000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>3196000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2947000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>2999000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3740000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2855000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2708000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2675000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2814000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>3255000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>3347000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>3141000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3085000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>883000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>884000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3858000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>500000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1600000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3957000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4825000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>301000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1185000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4208000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>77500000000</v>
+      </c>
+      <c r="C13">
         <v>73433000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>69650000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>68489000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>67586000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>65241000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>64363000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>67255000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>67472000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>67788000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>68576000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>68820000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>69872000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>70460000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>70410000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>68784000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>68118000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>66808000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>84664000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>60188000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>60775000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>58247000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>56099000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>54493000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>55864000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>53011000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>49374000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>47976000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>47107000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>43403000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>40480000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>37625000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>37769000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>47032000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>33809000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>30499000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>28804000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>14191000000</v>
+      </c>
+      <c r="C14">
         <v>14321000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>12157000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>13360000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>14507000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12760000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>13457000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>15160000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15775000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>15771000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>16069000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>17248000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>19866000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>20363000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>21244000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>21891000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>23996000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>23741000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>21015000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>20799000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>19899000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>20709000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>20194000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>20147000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>20167000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>19295000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>20476000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>24279000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>23881000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>23692000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>24060000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>27460000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>16496000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>22973000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>22704000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>24321000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -1918,272 +2065,278 @@
       <c r="AN15">
         <v>0</v>
       </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>5029000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4941000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4914000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5316000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4888000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4522000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4494000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4690000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4295000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4428000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4205000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4718000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>14191000000</v>
+      </c>
+      <c r="C17">
         <v>14321000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>12157000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>13360000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>14507000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>12760000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13457000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>15160000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15775000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>15771000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>16069000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>17248000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>19866000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>20363000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>21244000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>21891000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>23996000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>23741000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>21015000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>20799000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>19899000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>20709000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>20194000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>20147000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>20167000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>19295000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>20476000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>24279000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>23881000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>23692000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>24060000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>27460000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>16496000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>22973000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>22704000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>24321000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>91691000000</v>
+      </c>
+      <c r="C18">
         <v>87754000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>81807000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>81849000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>82093000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>78001000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>77820000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>82415000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>83247000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>83559000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>84645000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>86068000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>89738000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>90823000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>91654000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>90675000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>92114000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>90549000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>84664000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>81203000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>81574000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>78146000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>76808000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>74687000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>76011000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>73178000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>68669000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>68452000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>71386000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>67284000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>64172000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>61685000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>65229000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>63528000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>56782000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>53203000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>53125000000</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -2191,115 +2344,118 @@
       <c r="AN18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>9718000000</v>
+      </c>
+      <c r="C19">
         <v>9685000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>9663000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>9643000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>9669000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9649000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>9620000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9592000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>9570000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>9552000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>9532000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>9523000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>9537000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>9520000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>9500000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>9489000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>9482000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>9470000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>9486000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>9470000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9445000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>9429000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>9415000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>9405000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>9393000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>9381000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>9370000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>9359000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>9351000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9431000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>9422000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>9418000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>9408000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>9401000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>6399000000</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -2307,10 +2463,13 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>734000000</v>
@@ -2348,8 +2507,8 @@
       <c r="M20">
         <v>734000000</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
+      <c r="N20">
+        <v>734000000</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -2357,10 +2516,13 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1000000</v>
@@ -2465,13 +2627,13 @@
         <v>1000000</v>
       </c>
       <c r="AJ21">
+        <v>1000000</v>
+      </c>
+      <c r="AK21">
         <v>6052000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>5973000000</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -2479,192 +2641,198 @@
       <c r="AN21">
         <v>0</v>
       </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>16716000000</v>
+      </c>
+      <c r="C22">
         <v>16252000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>15679000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>15003000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>14245000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>13562000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>12560000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>11470000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10621000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>10024000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>9852000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>9960000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>12117000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>11533000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>10627000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>9939000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>8986000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>8355000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>7906000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>7334000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>6809000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6543000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>6109000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>5724000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>5330000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>4861000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>4364000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3875000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3293000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>2746000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>2172000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1631000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1079000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>548000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>14171000000</v>
+      </c>
+      <c r="C23">
         <v>13473000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>12535000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>11842000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10925000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9946000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>8662000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8302000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8174000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>8181000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>8183000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>8199000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>7243000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>5890000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>5351000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>4664000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3729000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3731000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2842000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2363000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1957000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1531000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1144000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>712000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>475000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>238000000</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -2672,13 +2840,13 @@
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -2686,234 +2854,240 @@
       <c r="AN24">
         <v>0</v>
       </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>12139000000</v>
+      </c>
+      <c r="C25">
         <v>12278000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>12659000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>12684000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>12921000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>13202000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>13463000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>12705000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>11967000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>11365000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>11165000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>11236000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>14354000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>15120000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>14734000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>14709000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>14678000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>13996000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>14458000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>14356000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>14234000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>14402000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>14332000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>14363000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>14196000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>13981000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>13715000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>13204000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>12604000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>12158000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>11578000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>11036000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10478000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>9941000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>6393000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>6042000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>5960000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>12873000000</v>
+      </c>
+      <c r="C26">
         <v>13012000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>13393000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>13418000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>13655000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>13936000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>14197000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13439000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>12701000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>12099000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>11899000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>11970000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15088000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>15120000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>14734000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>14709000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>14678000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>13996000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>14458000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>14356000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>14234000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>14402000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>14332000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>14363000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>14196000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>13981000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>13715000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>13204000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>12604000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>12158000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>11578000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>11036000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>10478000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>9941000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>6393000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>6042000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>5960000000</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -2921,121 +3095,124 @@
       <c r="AN26">
         <v>0</v>
       </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>104564000000</v>
+      </c>
+      <c r="C27">
         <v>100766000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>95200000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>95267000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>95748000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>91937000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>92017000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>95854000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>95948000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>95658000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>96544000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>98038000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>104826000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>105943000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>106388000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>105384000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>106792000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>104545000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>99122000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>95559000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>95808000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>92548000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>91140000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>89050000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>90207000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>87159000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>82384000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>81656000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>83990000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>79442000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>75750000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>72721000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>75707000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>73469000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>63175000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>59245000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>59085000000</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -3043,100 +3220,103 @@
       <c r="AN27">
         <v>0</v>
       </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>438200000</v>
+      </c>
+      <c r="C28">
         <v>458904000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>487822000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>506223000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>526830000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>547241000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>573416000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>581130000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>584010000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>583766000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>583714000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>583233000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>615925000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>653657000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>668908000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>688838000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>718759000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>718710000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>746598000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>760279000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>770531000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>782584000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>795324000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>810805000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>817352000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>825464000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>833921000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>833830000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>833828000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>833824000</v>
-      </c>
-      <c r="AE28">
-        <v>833765000</v>
       </c>
       <c r="AF28">
         <v>833765000</v>
@@ -3147,13 +3327,13 @@
       <c r="AH28">
         <v>833765000</v>
       </c>
+      <c r="AI28">
+        <v>833765000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>750000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C29">
         <v>750000</v>
@@ -3188,340 +3368,352 @@
       <c r="M29">
         <v>750000</v>
       </c>
+      <c r="N29">
+        <v>750000</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>10481000000</v>
+      </c>
+      <c r="C30">
         <v>10874000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>11170000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>11164000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>11382000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>11741000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>11994000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>11166000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>10498000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>9930000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9655000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>9684000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>12745000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>12865000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>12441000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>12374000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>12517000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>11867000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>12571000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>12585000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>12494000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>12639000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>12554000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>12545000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>12535000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>12299000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>12062000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>11553000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>10954000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>10563000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>10054000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>9530000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>9010000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>8543000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>4981000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>4629000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>4711000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>3897000000</v>
+      </c>
+      <c r="C31">
         <v>3242000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2359000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6677000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6670000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2954000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3940000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2497000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>9076000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2219000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>26000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4729000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>11927000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>8902000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>9489000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>8928000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>14600000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>11673000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-15675000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>7971000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>9197000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>5984000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>8689000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>8802000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>10826000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>6579000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>7508000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>7976000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>11954000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>11610000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>13071000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>12842000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>15632000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1688000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>16191000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>17373000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>22002000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>14191000000</v>
+      </c>
+      <c r="C32">
         <v>15204000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>13041000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>17218000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15007000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>12760000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>15057000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>19117000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>20600000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>15771000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>16370000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>18433000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>24074000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>20363000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>21244000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>21891000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>23996000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>23741000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>21015000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>20799000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>19899000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>20709000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>20194000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>20147000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>20167000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>19295000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>20476000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>24279000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>23881000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>23692000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>24060000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>27460000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>16496000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>22973000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>22704000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>24321000000</v>
       </c>
     </row>
